--- a/Document/Database/software 202110.xlsx
+++ b/Document/Database/software 202110.xlsx
@@ -11450,7 +11450,7 @@
         <v>408</v>
       </c>
       <c r="I249" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="J249" t="s">
         <v>430</v>
